--- a/biology/Botanique/Orchis_pyramidal/Orchis_pyramidal.xlsx
+++ b/biology/Botanique/Orchis_pyramidal/Orchis_pyramidal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis pyramidalis
 L’Orchis pyramidal (Anacamptis pyramidalis) est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidées terrestre européenne.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est vivace, glabre, grêle, élancée, à tubercules ovoïdes entiers. Elle peut atteindre 70 cm, mais oscille le plus souvent entre 30 et 50 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est vivace, glabre, grêle, élancée, à tubercules ovoïdes entiers. Elle peut atteindre 70 cm, mais oscille le plus souvent entre 30 et 50 cm.
 Ses feuilles lancéolées-linéaires, vertes et dressées sont situées à la base de la plante et d'autres plus petites, peu visibles, sont fixées sur la tige (feuilles caulinaires).
 L'inflorescence dense forme un épi pyramidal de fleurs serrées. Les fleurs rose soutenu mais dont la couleur peut varier du rose clair au pourpre sont très rarement blanches. Leur labelle, nettement trilobé, muni de deux crêtes saillantes à la base, forme vers l'arrière, un éperon filiforme d'environ 1 cm.
 Les rétinacles sont soudés, avec des bursicules à 1 loge.
@@ -547,7 +561,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison s'échelonne d'avril à juillet.
 L'hybridation avec d'autres Anacamptis a été observée (hybridations interspécifiques). Elle est possible avec des Serapias (hybridations intergénériques).
@@ -581,7 +597,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A. pyramidalis colonise les sols calcaires, les pelouses, les prairies sèches et bien exposées, les talus, jusqu'à 2 000 m d'altitude.
 </t>
@@ -612,9 +630,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée se répartit sur le centre et le sud de l'Europe et forme dans certaines régions des populations très abondantes. Présente en Angleterre et en Irlande, elle est très rare en Belgique, où elle atteint, sur le continent, sa limite nord[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée se répartit sur le centre et le sud de l'Europe et forme dans certaines régions des populations très abondantes. Présente en Angleterre et en Irlande, elle est très rare en Belgique, où elle atteint, sur le continent, sa limite nord.
 Elle est commune en France : Alpes, Aquitaine, Corse, Lorraine, Occitanie,Champagne Ardenne, Alsace...
 </t>
         </is>
@@ -644,9 +664,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée en France "LC" : Préoccupation mineure[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée en France "LC" : Préoccupation mineure.
 En Russie, elle est classée au Livre rouge de Russie des espèces menacées.
 </t>
         </is>
@@ -676,7 +698,9 @@
           <t>Autres espèces du genre</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les dernières classifications tendent à disperser quelques espèces du genre Orchis vers le genre Anacamptis, qui de fait, n'est plus monospécifique (auparavant, ce genre ne renfermait que l'espèce pyramidalis). Outre A. pyramidalis, on trouve à présent :
 Anacamptis champagneuxii
